--- a/tool/template/error_info.xlsx
+++ b/tool/template/error_info.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C13DF258-8D46-4889-A3BA-C1C8A30AACE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8DED703-CA2F-4E7F-9885-7C2649870440}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6360" yWindow="0" windowWidth="13365" windowHeight="14505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -15,15 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="62">
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="59">
   <si>
     <t>名字</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -38,10 +30,6 @@
   </si>
   <si>
     <t>desc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -646,474 +634,402 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:A13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="21.875" customWidth="1"/>
-    <col min="3" max="3" width="66.25" customWidth="1"/>
-    <col min="4" max="4" width="65" customWidth="1"/>
-    <col min="5" max="5" width="61.5" customWidth="1"/>
-    <col min="6" max="6" width="11.25" customWidth="1"/>
-    <col min="7" max="7" width="16" customWidth="1"/>
+    <col min="1" max="1" width="21.875" customWidth="1"/>
+    <col min="2" max="2" width="66.25" customWidth="1"/>
+    <col min="3" max="3" width="65" customWidth="1"/>
+    <col min="4" max="4" width="61.5" customWidth="1"/>
+    <col min="5" max="5" width="11.25" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="E1" s="1"/>
       <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="E2" s="1"/>
       <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
-        <v>200</v>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="1">
-        <v>601</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="B7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="B8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="1">
-        <v>602</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="1">
-        <v>603</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="B9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="1">
-        <v>604</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="1">
-        <v>605</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="1">
-        <v>606</v>
-      </c>
-      <c r="B10" s="1" t="s">
+      <c r="C14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A20" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D10" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" s="1">
-        <v>607</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="1">
-        <v>608</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="1">
-        <v>609</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14" s="1">
-        <v>701</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" s="1">
-        <v>702</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" s="1">
-        <v>703</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="1">
-        <v>704</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="1">
-        <v>705</v>
-      </c>
-      <c r="B18" s="1" t="s">
+      <c r="D20" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A19" s="1">
-        <v>706</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A20" s="1">
-        <v>707</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="1">
-        <v>708</v>
-      </c>
-      <c r="B21" s="1" t="s">
+      <c r="D21" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A22" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A24" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="1">
-        <v>709</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A23" s="1">
-        <v>710</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A24" s="1">
-        <v>711</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="C24" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4:G71" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F71" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"blue,green,purple,red"</formula1>
     </dataValidation>
   </dataValidations>
